--- a/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplates/CDDIS_USD.xlsx
+++ b/ExpenseProcessingSystem/ExpenseProcessingSystem/wwwroot/ExcelTemplates/CDDIS_USD.xlsx
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -990,39 +990,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1033,8 +1010,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1624,16 +1625,16 @@
       </c>
       <c r="T5" s="21"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="113">
+      <c r="V5" s="115">
         <f ca="1">NOW()</f>
-        <v>43644.449338773149</v>
-      </c>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
+        <v>43705.530897337965</v>
+      </c>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
@@ -1744,8 +1745,8 @@
       <c r="H8" s="34"/>
       <c r="I8" s="32"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="32"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="60"/>
       <c r="M8" s="6"/>
       <c r="N8" s="29" t="s">
         <v>4</v>
@@ -1812,29 +1813,29 @@
       <c r="H9" s="29"/>
       <c r="I9" s="6"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
       <c r="R9" s="43"/>
       <c r="S9" s="44"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
       <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
       <c r="AH9" s="43"/>
       <c r="AI9" s="43"/>
       <c r="AJ9" s="43"/>
@@ -1881,11 +1882,11 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="112" t="s">
+      <c r="AJ10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="109"/>
       <c r="AM10" s="48"/>
       <c r="AN10" s="39"/>
     </row>
@@ -2022,16 +2023,16 @@
       <c r="AN13" s="39"/>
     </row>
     <row r="14" spans="1:40" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="118"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="29"/>
       <c r="I14" s="29" t="s">
         <v>17</v>
@@ -2051,31 +2052,31 @@
       <c r="S14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="106"/>
+      <c r="X14" s="121"/>
       <c r="Y14" s="106"/>
       <c r="Z14" s="106"/>
       <c r="AA14" s="106"/>
       <c r="AB14" s="106"/>
       <c r="AC14" s="106"/>
       <c r="AD14" s="106"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="108"/>
-      <c r="AL14" s="108"/>
-      <c r="AM14" s="109"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="106"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="122"/>
       <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:40" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="64" t="s">
         <v>22</v>
       </c>
@@ -2120,12 +2121,12 @@
       <c r="AN15" s="10"/>
     </row>
     <row r="16" spans="1:40" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="69">
         <v>1</v>
       </c>
@@ -2198,12 +2199,12 @@
       <c r="AN16" s="10"/>
     </row>
     <row r="17" spans="1:40" ht="38.25" customHeight="1">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -2245,12 +2246,12 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="47"/>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
@@ -2276,12 +2277,12 @@
       <c r="AN18" s="10"/>
     </row>
     <row r="19" spans="1:40" ht="39" customHeight="1" thickBot="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="74"/>
       <c r="F19" s="29" t="s">
         <v>32</v>
@@ -2543,16 +2544,16 @@
       <c r="AN24" s="39"/>
     </row>
     <row r="25" spans="1:40" s="12" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="118"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="29"/>
       <c r="I25" s="29" t="s">
         <v>17</v>
@@ -2576,31 +2577,31 @@
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
       <c r="W25" s="80"/>
-      <c r="X25" s="106"/>
+      <c r="X25" s="121"/>
       <c r="Y25" s="106"/>
       <c r="Z25" s="106"/>
       <c r="AA25" s="106"/>
       <c r="AB25" s="106"/>
       <c r="AC25" s="106"/>
       <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="108"/>
-      <c r="AJ25" s="108"/>
-      <c r="AK25" s="108"/>
-      <c r="AL25" s="108"/>
-      <c r="AM25" s="110"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="122"/>
       <c r="AN25" s="10"/>
     </row>
     <row r="26" spans="1:40" s="12" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="34">
         <v>9</v>
       </c>
@@ -2645,12 +2646,12 @@
       <c r="AN26" s="10"/>
     </row>
     <row r="27" spans="1:40" s="12" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="69">
         <v>0</v>
       </c>
@@ -2728,12 +2729,12 @@
       <c r="AN27" s="10"/>
     </row>
     <row r="28" spans="1:40" s="12" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
@@ -2780,12 +2781,12 @@
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="47"/>
-      <c r="H29" s="124" t="s">
+      <c r="H29" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="121"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="112"/>
       <c r="L29" s="82"/>
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
@@ -2812,12 +2813,12 @@
       <c r="AN29" s="10"/>
     </row>
     <row r="30" spans="1:40" s="12" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="74"/>
       <c r="F30" s="29" t="s">
         <v>32</v>
@@ -2912,12 +2913,12 @@
       <c r="AN31" s="39"/>
     </row>
     <row r="32" spans="1:40" s="12" customFormat="1" ht="36" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
@@ -3202,11 +3203,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="V5:AB5"/>
     <mergeCell ref="AJ10:AL10"/>
@@ -3219,6 +3215,11 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.16" top="0.54" bottom="0.24" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
